--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069E540-082A-4EAD-9496-ED53B24B9336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1FFCFD-1EC3-42F7-AA95-BEEC04C5A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10428" yWindow="7080" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <t>crDex</t>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,82 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descrption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,80 +527,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,554 +624,662 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
       <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>200</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M3" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S3" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>200</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>200</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M5" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
       <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>200</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M6" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>200</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M7" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S7" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>200</v>
       </c>
-      <c r="J8" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M8" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S8" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
       <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>200</v>
       </c>
-      <c r="J9" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M9" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S9" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
       <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>200</v>
       </c>
-      <c r="J10" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M10" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S10" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1FFCFD-1EC3-42F7-AA95-BEEC04C5A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB60273-81C2-4B15-893E-49348911997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10428" yWindow="7080" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB60273-81C2-4B15-893E-49348911997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B025501-C7D8-458C-A3A1-765D49004950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B025501-C7D8-458C-A3A1-765D49004950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9FF35-D602-4E73-8A21-FC63B974F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9FF35-D602-4E73-8A21-FC63B974F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16743A6B-F12F-4402-AFD0-5E7F8ABF0076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="528" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1001]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,10 +547,11 @@
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="23" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -615,8 +624,11 @@
       <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,8 +701,11 @@
       <c r="X2" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="Y2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -763,8 +778,11 @@
       <c r="X3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -837,8 +855,11 @@
       <c r="X4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -911,8 +932,11 @@
       <c r="X5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -985,8 +1009,11 @@
       <c r="X6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="Y6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1059,8 +1086,11 @@
       <c r="X7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1133,8 +1163,11 @@
       <c r="X8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1207,8 +1240,11 @@
       <c r="X9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1279,6 +1315,9 @@
         <v>28</v>
       </c>
       <c r="X10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16743A6B-F12F-4402-AFD0-5E7F8ABF0076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED83C4C-F2F1-4545-A668-392B568921AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="528" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5796" yWindow="7164" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED83C4C-F2F1-4545-A668-392B568921AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4CFA36-1366-48A5-9FC6-3476F2314F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5796" yWindow="7164" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机枪手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,33 @@
   </si>
   <si>
     <t>dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animName</t>
+  </si>
+  <si>
+    <t>突击步枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -549,9 +572,10 @@
     <col min="4" max="22" width="8.88671875" style="1"/>
     <col min="23" max="24" width="12.109375" customWidth="1"/>
     <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -627,8 +651,11 @@
       <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,18 +729,21 @@
         <v>31</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -779,15 +809,18 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -858,16 +891,19 @@
       <c r="Y4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Z4" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -935,16 +971,19 @@
       <c r="Y5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Z5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
@@ -1012,16 +1051,19 @@
       <c r="Y6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Z6" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -1089,16 +1131,19 @@
       <c r="Y7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Z7" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -1166,16 +1211,19 @@
       <c r="Y8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Z8" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1243,16 +1291,19 @@
       <c r="Y9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Z9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1319,6 +1370,9 @@
       </c>
       <c r="Y10" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4CFA36-1366-48A5-9FC6-3476F2314F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63B515-293B-468F-8D44-17A82DD097AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,22 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ryan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>James</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[0:1001]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +197,26 @@
   </si>
   <si>
     <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jianxin Liu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:2001]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -729,10 +729,10 @@
         <v>31</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -782,7 +782,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -862,7 +862,7 @@
         <v>0.5</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -942,7 +942,7 @@
         <v>0.5</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>28</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -1022,7 +1022,7 @@
         <v>0.5</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1060,10 +1060,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -1102,7 +1102,7 @@
         <v>0.5</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1140,10 +1140,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -1182,7 +1182,7 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>28</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1262,7 +1262,7 @@
         <v>0.5</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>28</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1300,10 +1300,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1342,7 +1342,7 @@
         <v>0.5</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63B515-293B-468F-8D44-17A82DD097AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC1D4E-9EDB-4A68-8CCB-AE94004BF54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -746,19 +746,19 @@
         <v>40</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -826,19 +826,19 @@
         <v>33</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC1D4E-9EDB-4A68-8CCB-AE94004BF54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07A5D2-A06A-4577-AE3C-6E992DDB381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
         <v>200</v>
       </c>
       <c r="K3" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L3" s="1">
         <v>100</v>
@@ -847,7 +847,7 @@
         <v>200</v>
       </c>
       <c r="K4" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="1">
         <v>100</v>
@@ -927,7 +927,7 @@
         <v>200</v>
       </c>
       <c r="K5" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="1">
         <v>100</v>
@@ -1007,7 +1007,7 @@
         <v>200</v>
       </c>
       <c r="K6" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07A5D2-A06A-4577-AE3C-6E992DDB381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CBBEC-1723-4A56-9284-60D8170A3DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
   </si>
   <si>
     <t>Jianxin Liu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0:2001]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -782,7 +778,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -809,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>41</v>
@@ -862,7 +858,7 @@
         <v>0.5</v>
       </c>
       <c r="P4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -942,7 +938,7 @@
         <v>0.5</v>
       </c>
       <c r="P5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1022,7 +1018,7 @@
         <v>0.5</v>
       </c>
       <c r="P6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CBBEC-1723-4A56-9284-60D8170A3DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BD3921-AA98-45A4-8455-3498F6EB1E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>Jianxin Liu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:2001]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +561,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>41</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BD3921-AA98-45A4-8455-3498F6EB1E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10076667-024E-41EB-AA20-8FEA9A831992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2556" yWindow="1428" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>[[0:2001]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,10 +576,11 @@
     <col min="4" max="22" width="8.88671875" style="1"/>
     <col min="23" max="24" width="12.109375" customWidth="1"/>
     <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -654,8 +659,11 @@
       <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AA1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,8 +742,11 @@
       <c r="Z2" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -814,8 +825,11 @@
       <c r="Z3" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AA4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -974,8 +991,11 @@
       <c r="Z5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AA5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1054,8 +1074,11 @@
       <c r="Z6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AA6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="Z7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA7" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1214,8 +1240,11 @@
       <c r="Z8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA8" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1294,8 +1323,11 @@
       <c r="Z9" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1372,6 +1404,9 @@
         <v>28</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10076667-024E-41EB-AA20-8FEA9A831992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA13381-B913-4973-9090-33CF2F3C1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1428" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
   </si>
   <si>
     <t>Jianxin Liu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0:2001]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,7 +739,7 @@
         <v>39</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -793,10 +789,10 @@
         <v>0.5</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R3" s="1">
         <v>100</v>
@@ -820,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>41</v>
@@ -876,10 +872,10 @@
         <v>0.5</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R4" s="1">
         <v>100</v>
@@ -959,10 +955,10 @@
         <v>0.5</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1">
         <v>100</v>
@@ -1042,10 +1038,10 @@
         <v>0.5</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" s="1">
         <v>100</v>
@@ -1128,7 +1124,7 @@
         <v>0.5</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="1">
         <v>100</v>
@@ -1211,7 +1207,7 @@
         <v>0.5</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="1">
         <v>100</v>
@@ -1294,7 +1290,7 @@
         <v>0.5</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="1">
         <v>100</v>
@@ -1377,7 +1373,7 @@
         <v>0.5</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R10" s="1">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA13381-B913-4973-9090-33CF2F3C1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9D701-4629-43B1-82F8-0D24F772B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Q10"/>
+      <selection activeCell="Q7" sqref="P7:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1121,10 +1121,10 @@
         <v>0.5</v>
       </c>
       <c r="P7" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R7" s="1">
         <v>100</v>
@@ -1204,10 +1204,10 @@
         <v>0.5</v>
       </c>
       <c r="P8" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R8" s="1">
         <v>100</v>
@@ -1287,10 +1287,10 @@
         <v>0.5</v>
       </c>
       <c r="P9" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1">
         <v>100</v>
@@ -1370,10 +1370,10 @@
         <v>0.5</v>
       </c>
       <c r="P10" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R10" s="1">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9D701-4629-43B1-82F8-0D24F772B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F14722-56D4-4B35-9284-6AE6603F4B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2868" yWindow="0" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,13 +70,6 @@
     <t>crAmmo</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>crFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +210,18 @@
   </si>
   <si>
     <t>iconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnLRpos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campPosIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="P7:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,92 +579,97 @@
     <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" customWidth="1"/>
     <col min="27" max="27" width="14.109375" customWidth="1"/>
+    <col min="28" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -718,39 +728,43 @@
         <v>17</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="AD2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -783,16 +797,16 @@
         <v>0.5</v>
       </c>
       <c r="N3" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="O3" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>100</v>
@@ -800,40 +814,44 @@
       <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="1">
-        <v>100</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -866,16 +884,16 @@
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P4" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>100</v>
@@ -883,40 +901,44 @@
       <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
-        <v>100</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
+      <c r="T4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -949,16 +971,16 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>100</v>
@@ -966,40 +988,44 @@
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
-        <v>100</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
+      <c r="T5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1032,16 +1058,16 @@
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>100</v>
@@ -1049,40 +1075,44 @@
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
-        <v>100</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
+      <c r="T6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -1115,16 +1145,16 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>100</v>
@@ -1132,40 +1162,44 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
-        <v>100</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
+      <c r="T7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -1198,16 +1232,16 @@
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O8" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P8" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>100</v>
@@ -1215,40 +1249,44 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
-        <v>100</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
+      <c r="T8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1281,16 +1319,16 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>100</v>
@@ -1298,40 +1336,44 @@
       <c r="S9" s="1">
         <v>1</v>
       </c>
-      <c r="T9" s="1">
-        <v>100</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
+      <c r="T9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1364,16 +1406,16 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O10" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P10" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>100</v>
@@ -1381,30 +1423,34 @@
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
-        <v>100</v>
-      </c>
-      <c r="U10" s="1">
-        <v>1</v>
+      <c r="T10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F14722-56D4-4B35-9284-6AE6603F4B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4CE688-E45E-4FB9-985C-1A282A5DB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="0" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,25 +565,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="18.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="24" width="12.109375" customWidth="1"/>
+    <col min="4" max="22" width="8.86328125" style="1"/>
+    <col min="23" max="24" width="12.1328125" customWidth="1"/>
     <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" customWidth="1"/>
-    <col min="28" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1328125" customWidth="1"/>
+    <col min="28" max="29" width="13.1328125" customWidth="1"/>
+    <col min="30" max="30" width="15.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -791,25 +791,25 @@
         <v>0.4</v>
       </c>
       <c r="L3" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -878,16 +878,16 @@
         <v>0.4</v>
       </c>
       <c r="L4" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1">
         <v>100</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -965,16 +965,16 @@
         <v>0.4</v>
       </c>
       <c r="L5" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1">
         <v>100</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1052,25 +1052,25 @@
         <v>0.4</v>
       </c>
       <c r="L6" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1145,13 +1145,13 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>26</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1232,10 +1232,10 @@
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="1">
         <v>100</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1319,10 +1319,10 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1">
         <v>100</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1406,10 +1406,10 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4CE688-E45E-4FB9-985C-1A282A5DB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064823C3-6657-40A1-A58C-DDE6918E7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064823C3-6657-40A1-A58C-DDE6918E7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564F111-E13C-4D4C-AEDA-FB5176ECBAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,24 +566,24 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
-    <col min="2" max="2" width="18.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.86328125" style="1"/>
-    <col min="23" max="24" width="12.1328125" customWidth="1"/>
+    <col min="4" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="24" width="12.109375" customWidth="1"/>
     <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14.1328125" customWidth="1"/>
-    <col min="28" max="29" width="13.1328125" customWidth="1"/>
-    <col min="30" max="30" width="15.46484375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
+    <col min="28" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O3" s="1">
         <v>6</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" s="1">
         <v>100</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <v>100</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>50</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1145,10 +1145,10 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1">
         <v>90</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1232,10 +1232,10 @@
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>100</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1319,10 +1319,10 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
         <v>100</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1406,10 +1406,10 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564F111-E13C-4D4C-AEDA-FB5176ECBAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EB229-62D8-4DBE-B475-46503C3A307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="4932" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,9 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>animName</t>
-  </si>
-  <si>
     <t>突击步枪手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,19 +215,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iconName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BtnLRpos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>campPosIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1001]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>converIds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -579,11 +597,11 @@
     <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" customWidth="1"/>
     <col min="27" max="27" width="14.109375" customWidth="1"/>
-    <col min="28" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.109375" customWidth="1"/>
+    <col min="29" max="29" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -668,8 +686,11 @@
       <c r="AB1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,31 +761,33 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2"/>
+        <v>47</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -827,28 +850,30 @@
         <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="1">
         <v>2</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3"/>
+        <v>-1</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -914,28 +939,30 @@
         <v>26</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD4"/>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1001,28 +1028,30 @@
         <v>26</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA5" s="1">
         <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD5"/>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1088,23 +1117,25 @@
         <v>26</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="1">
         <v>3</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6"/>
+        <v>-1</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1175,13 +1206,13 @@
         <v>26</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -1189,9 +1220,11 @@
       <c r="AB7" s="1">
         <v>1</v>
       </c>
-      <c r="AD7"/>
+      <c r="AC7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1262,13 +1295,13 @@
         <v>26</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -1276,9 +1309,11 @@
       <c r="AB8" s="1">
         <v>1</v>
       </c>
-      <c r="AD8"/>
+      <c r="AC8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1349,13 +1384,13 @@
         <v>26</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -1363,9 +1398,11 @@
       <c r="AB9" s="1">
         <v>1</v>
       </c>
-      <c r="AD9"/>
+      <c r="AC9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1436,13 +1473,13 @@
         <v>26</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
@@ -1450,7 +1487,9 @@
       <c r="AB10" s="1">
         <v>1</v>
       </c>
-      <c r="AD10"/>
+      <c r="AC10" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EB229-62D8-4DBE-B475-46503C3A307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D552DA-27AB-487D-AE6A-FC331CA1FFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="4932" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D552DA-27AB-487D-AE6A-FC331CA1FFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38CD597-6578-4DF6-A0BB-FE25604262F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38CD597-6578-4DF6-A0BB-FE25604262F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0144D2-3F94-4463-AE76-5224B2C84017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10665" yWindow="2700" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,26 @@
   </si>
   <si>
     <t>converIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1002]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1003]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1004]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,27 +601,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" customWidth="1"/>
-    <col min="28" max="28" width="13.109375" customWidth="1"/>
-    <col min="29" max="29" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="22" width="8.875" style="1"/>
+    <col min="23" max="24" width="12.125" customWidth="1"/>
+    <col min="25" max="25" width="10.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" customWidth="1"/>
+    <col min="27" max="27" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="13.125" customWidth="1"/>
+    <col min="29" max="29" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -690,7 +710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,7 +799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -868,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -954,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1043,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1132,10 +1152,10 @@
         <v>-1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1224,7 +1244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1313,7 +1333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1402,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1489,6 +1509,95 @@
       </c>
       <c r="AC10" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>200</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>60</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>6</v>
+      </c>
+      <c r="P11" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>70</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38CD597-6578-4DF6-A0BB-FE25604262F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C895DF-B8DE-4E69-9E3E-852413AFC0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0144D2-3F94-4463-AE76-5224B2C84017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD5DF3-B0EE-4A75-813D-6CEEA7F87964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="2700" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,23 +243,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[0:1002]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0:1003]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0:1004]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Commander</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commander</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:AC11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -1063,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -1152,7 +1144,7 @@
         <v>-1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -1516,10 +1508,10 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>200</v>
@@ -1582,16 +1574,16 @@
         <v>26</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AA11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="1">
         <v>-1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD5DF3-B0EE-4A75-813D-6CEEA7F87964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7854CE9-BB84-4DE7-BE1E-6C9AD3DF4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>commander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftResNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,27 +597,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.875" style="1"/>
-    <col min="23" max="24" width="12.125" customWidth="1"/>
-    <col min="25" max="25" width="10.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" customWidth="1"/>
-    <col min="27" max="27" width="14.125" customWidth="1"/>
-    <col min="28" max="28" width="13.125" customWidth="1"/>
-    <col min="29" max="29" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="15" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -681,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>19</v>
@@ -693,16 +698,19 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -770,28 +778,31 @@
         <v>29</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -858,11 +869,11 @@
       <c r="V3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>26</v>
+      <c r="W3" s="1">
+        <v>10</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>38</v>
@@ -870,17 +881,20 @@
       <c r="Z3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="1">
         <v>2</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>-1</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -947,11 +961,11 @@
       <c r="V4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>26</v>
+      <c r="W4" s="1">
+        <v>10</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>39</v>
@@ -959,17 +973,20 @@
       <c r="Z4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1036,11 +1053,11 @@
       <c r="V5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>26</v>
+      <c r="W5" s="1">
+        <v>10</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>40</v>
@@ -1048,17 +1065,20 @@
       <c r="Z5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="1">
-        <v>1</v>
+      <c r="AA5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB5" s="1">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1125,11 +1145,11 @@
       <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>26</v>
+      <c r="W6" s="1">
+        <v>10</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>41</v>
@@ -1137,17 +1157,20 @@
       <c r="Z6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="1">
         <v>3</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>-1</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1214,11 +1237,11 @@
       <c r="V7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>26</v>
+      <c r="W7" s="1">
+        <v>10</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>42</v>
@@ -1226,17 +1249,20 @@
       <c r="Z7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="1">
         <v>0</v>
       </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1303,11 +1329,11 @@
       <c r="V8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>26</v>
+      <c r="W8" s="1">
+        <v>10</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>42</v>
@@ -1315,17 +1341,20 @@
       <c r="Z8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="1">
         <v>0</v>
       </c>
-      <c r="AB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1392,11 +1421,11 @@
       <c r="V9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>26</v>
+      <c r="W9" s="1">
+        <v>10</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>42</v>
@@ -1404,17 +1433,20 @@
       <c r="Z9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="1">
         <v>0</v>
       </c>
-      <c r="AB9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1481,11 +1513,11 @@
       <c r="V10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>26</v>
+      <c r="W10" s="1">
+        <v>10</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>42</v>
@@ -1493,17 +1525,20 @@
       <c r="Z10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="1">
         <v>0</v>
       </c>
-      <c r="AB10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1570,11 +1605,11 @@
       <c r="V11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>26</v>
+      <c r="W11" s="1">
+        <v>10</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>56</v>
@@ -1582,13 +1617,16 @@
       <c r="Z11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="1">
         <v>4</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>-1</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7854CE9-BB84-4DE7-BE1E-6C9AD3DF4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31528E75-449E-47BA-87EF-3053F3CB18B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -599,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -870,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="W3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>26</v>
@@ -962,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="W4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>26</v>
@@ -1054,7 +1052,7 @@
         <v>23</v>
       </c>
       <c r="W5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>26</v>
@@ -1146,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="W6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>26</v>
@@ -1238,7 +1236,7 @@
         <v>26</v>
       </c>
       <c r="W7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>26</v>
@@ -1606,7 +1604,7 @@
         <v>26</v>
       </c>
       <c r="W11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>26</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31528E75-449E-47BA-87EF-3053F3CB18B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6867FC-BAE8-4B8C-B7A6-75E2DECC68DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,14 @@
   </si>
   <si>
     <t>leftResNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1051]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1002]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,25 +606,25 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="22" width="8.875" style="1"/>
     <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="25" width="12.109375" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.125" customWidth="1"/>
+    <col min="26" max="26" width="10.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.625" customWidth="1"/>
+    <col min="28" max="28" width="14.125" customWidth="1"/>
+    <col min="29" max="29" width="13.125" customWidth="1"/>
+    <col min="30" max="30" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -708,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,7 +808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -889,10 +897,10 @@
         <v>-1</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -981,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6867FC-BAE8-4B8C-B7A6-75E2DECC68DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209CBFC-19F6-49AC-BD23-520C246D7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,18 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狙击手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医疗兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>突击步枪手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soldier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>commander</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +246,29 @@
   </si>
   <si>
     <t>[[0:1002]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu is an experienced assault rifleman. 
+He is &lt;b&gt;fast and aggressive&lt;/b&gt; in combat. 
+With his &lt;b&gt;support&lt;/b&gt; and supressive fire, other members can &lt;b&gt;deal more damage&lt;/b&gt; to enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper never miss a shot. 
+He is &lt;b&gt;not good at defending himself&lt;/b&gt;, but he can &lt;b&gt;take down enemies in seconds&lt;/b&gt;. 
+With his cover, other members would have &lt;b&gt;more chance to attack&lt;/b&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The medic is new to battleground. 
+Killing enemies is not his job. 
+However, he can&lt;b&gt;deal with other member's wound&lt;/b&gt; even if they are engaging enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With a long military career, the commander is the most &lt;b&gt;versatile&lt;/b&gt; member in the squad. 
+He can always guide other members to &lt;b&gt;take less damage from enemies&lt;/b&gt; with his experience.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +330,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,7 +616,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="G35" sqref="G21:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,39 +794,39 @@
         <v>29</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -831,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -846,10 +856,10 @@
         <v>60</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1">
         <v>6</v>
@@ -882,13 +892,13 @@
         <v>26</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="1">
         <v>2</v>
@@ -897,18 +907,18 @@
         <v>-1</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -935,7 +945,7 @@
         <v>0.4</v>
       </c>
       <c r="L4" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -974,13 +984,13 @@
         <v>26</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -989,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -997,10 +1007,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1066,13 +1076,13 @@
         <v>26</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="1">
         <v>1</v>
@@ -1081,18 +1091,18 @@
         <v>1</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1158,13 +1168,13 @@
         <v>26</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB6" s="1">
         <v>3</v>
@@ -1173,7 +1183,7 @@
         <v>-1</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1181,10 +1191,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
@@ -1244,19 +1254,19 @@
         <v>26</v>
       </c>
       <c r="W7" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -1273,10 +1283,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -1342,13 +1352,13 @@
         <v>26</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -1365,10 +1375,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1434,13 +1444,13 @@
         <v>26</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -1457,10 +1467,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1526,13 +1536,13 @@
         <v>26</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -1544,30 +1554,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1582,10 +1592,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O11" s="1">
         <v>6</v>
@@ -1606,10 +1616,10 @@
         <v>23</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="W11" s="1">
         <v>0</v>
@@ -1618,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AB11" s="1">
         <v>4</v>
@@ -1633,7 +1643,7 @@
         <v>-1</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209CBFC-19F6-49AC-BD23-520C246D7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E64D23-D60C-4433-A10B-6B06C7F2BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[0:1051]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0:1002]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,10 @@
   <si>
     <t>With a long military career, the commander is the most &lt;b&gt;versatile&lt;/b&gt; member in the squad. 
 He can always guide other members to &lt;b&gt;take less damage from enemies&lt;/b&gt; with his experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:1051]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,26 +615,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G21:G35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="22" width="8.88671875" style="1"/>
     <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="25" width="12.125" customWidth="1"/>
-    <col min="26" max="26" width="10.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.625" customWidth="1"/>
-    <col min="28" max="28" width="14.125" customWidth="1"/>
-    <col min="29" max="29" width="13.125" customWidth="1"/>
-    <col min="30" max="30" width="15.5" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -826,7 +826,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -907,10 +907,10 @@
         <v>-1</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -918,7 +918,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -999,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1186,7 +1186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="207" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E64D23-D60C-4433-A10B-6B06C7F2BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0A7E3-3F79-4C3E-97D9-D38122E1F125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>[[0:1051]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crAtkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,17 +632,19 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="25" width="12.109375" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="14" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="15" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.109375" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -693,22 +703,22 @@
         <v>20</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>19</v>
@@ -717,16 +727,22 @@
         <v>19</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,61 +780,67 @@
         <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -856,61 +878,67 @@
         <v>60</v>
       </c>
       <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>6</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>80</v>
       </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
         <v>70</v>
       </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="1">
         <v>0</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="1">
         <v>2</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AE3" s="1">
         <v>-1</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -951,58 +979,64 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>100</v>
       </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
         <v>80</v>
       </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="1">
         <v>0</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Z4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1043,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1060,41 +1094,47 @@
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="T5" s="1">
+        <v>100</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>0</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Z5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1135,58 +1175,64 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
         <v>50</v>
       </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
         <v>80</v>
       </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Z6" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="1">
         <v>3</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>-1</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1224,61 +1270,67 @@
         <v>100</v>
       </c>
       <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>90</v>
       </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
         <v>100</v>
       </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="1">
         <v>25</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z7" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="1">
         <v>0</v>
       </c>
-      <c r="AC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1316,19 +1368,19 @@
         <v>100</v>
       </c>
       <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>0.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>100</v>
@@ -1336,41 +1388,47 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>26</v>
+      <c r="T8" s="1">
+        <v>100</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="1">
         <v>10</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z8" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1408,19 +1466,19 @@
         <v>100</v>
       </c>
       <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>0.5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>100</v>
@@ -1428,41 +1486,47 @@
       <c r="S9" s="1">
         <v>1</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>26</v>
+      <c r="T9" s="1">
+        <v>100</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y9" s="1">
         <v>10</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z9" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="1">
         <v>0</v>
       </c>
-      <c r="AC9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1500,19 +1564,19 @@
         <v>100</v>
       </c>
       <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
         <v>0.5</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>2</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>100</v>
@@ -1520,41 +1584,47 @@
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>26</v>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="1">
         <v>10</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z10" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AC10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="207" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="207" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1592,57 +1662,63 @@
         <v>60</v>
       </c>
       <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>4</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>6</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>80</v>
       </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
         <v>70</v>
       </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>25</v>
+      <c r="U11" s="1">
+        <v>1</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="Z11" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" s="1">
         <v>4</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AE11" s="1">
         <v>-1</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0A7E3-3F79-4C3E-97D9-D38122E1F125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78BFF45-A7EA-477D-B810-8F54EF79341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -632,9 +632,10 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="14" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15" max="24" width="8.88671875" style="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="24" width="8.88671875" style="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
     <col min="26" max="27" width="12.109375" customWidth="1"/>
     <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
@@ -780,13 +781,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -878,13 +879,13 @@
         <v>60</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
         <v>0.5</v>
       </c>
       <c r="O3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
         <v>5</v>
@@ -1270,13 +1271,13 @@
         <v>100</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
@@ -1368,13 +1369,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -1466,13 +1467,13 @@
         <v>100</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
         <v>2</v>
@@ -1564,13 +1565,13 @@
         <v>100</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
         <v>2</v>
@@ -1662,13 +1663,13 @@
         <v>60</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
         <v>4</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E64D23-D60C-4433-A10B-6B06C7F2BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E3B48-3537-419B-8135-03865CA68FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,26 +615,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="18.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="22" width="8.88671875" style="1"/>
+    <col min="4" max="22" width="8.86328125" style="1"/>
     <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="25" width="12.109375" customWidth="1"/>
+    <col min="24" max="25" width="12.1328125" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1328125" customWidth="1"/>
+    <col min="29" max="29" width="13.1328125" customWidth="1"/>
+    <col min="30" max="30" width="15.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="194.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -910,7 +910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="180.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="W7" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="207" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="194.25" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78BFF45-A7EA-477D-B810-8F54EF79341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A3A87-4BAA-4E35-9BC4-ADB65B7004AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,104,105]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -635,7 +639,8 @@
     <col min="4" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="24" width="8.88671875" style="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
     <col min="26" max="27" width="12.109375" customWidth="1"/>
     <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
@@ -1696,7 +1701,7 @@
         <v>25</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A3A87-4BAA-4E35-9BC4-ADB65B7004AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688689E-5C52-4815-B5AC-413C25E77BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>23</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688689E-5C52-4815-B5AC-413C25E77BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DD947-D2A1-41A6-8540-D641A79B8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,9 @@
   <si>
     <t>[101,104,105]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flamethrower</t>
   </si>
 </sst>
 </file>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -642,7 +645,8 @@
     <col min="16" max="23" width="8.88671875" style="1"/>
     <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12.109375" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="18.77734375" customWidth="1"/>
     <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="12.6640625" customWidth="1"/>
     <col min="30" max="30" width="14.109375" customWidth="1"/>
@@ -1318,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>39</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DD947-D2A1-41A6-8540-D641A79B8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A982DF-BF52-4618-B3EE-9865FF6A48EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,14 @@
   </si>
   <si>
     <t>flamethrower</t>
+  </si>
+  <si>
+    <t>Signalman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo, he is the signalman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -628,33 +636,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" customWidth="1"/>
-    <col min="31" max="31" width="13.109375" customWidth="1"/>
-    <col min="32" max="32" width="15.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="18.75" customWidth="1"/>
+    <col min="28" max="28" width="10.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="13.125" customWidth="1"/>
+    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -752,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -948,7 +956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1144,7 +1152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1242,7 +1250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1438,7 +1446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="207" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1729,6 +1737,104 @@
         <v>-1</v>
       </c>
       <c r="AF11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>60</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1">
+        <v>80</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>70</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF12" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A982DF-BF52-4618-B3EE-9865FF6A48EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1ED67-07FE-46A4-A2CE-C1F3BA71FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,7 +639,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -858,7 +858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -956,7 +956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1413,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>26</v>
@@ -1642,7 +1642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1ED67-07FE-46A4-A2CE-C1F3BA71FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2EC86-04BD-4EB1-97E3-C40C38736339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,9 @@
   <si>
     <t>Echo, he is the signalman</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo</t>
   </si>
 </sst>
 </file>
@@ -638,31 +641,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.875" style="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="18.75" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
-    <col min="31" max="31" width="13.125" customWidth="1"/>
-    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="18.77734375" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -760,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -956,7 +959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>26</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>35</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2EC86-04BD-4EB1-97E3-C40C38736339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36ED94-81AD-4F3C-8881-435C6E092F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[101,104,105]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flamethrower</t>
   </si>
   <si>
@@ -296,6 +292,26 @@
   </si>
   <si>
     <t>echo</t>
+  </si>
+  <si>
+    <t>[101,102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,31 +657,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" customWidth="1"/>
-    <col min="31" max="31" width="13.109375" customWidth="1"/>
-    <col min="32" max="32" width="15.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="18.75" customWidth="1"/>
+    <col min="28" max="28" width="10.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="13.125" customWidth="1"/>
+    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -763,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -861,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -902,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -932,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -959,7 +975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1000,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -1030,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1057,7 +1073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1098,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -1128,7 +1144,7 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1155,7 +1171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="138" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -1226,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1253,7 +1269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1261,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
@@ -1294,7 +1310,7 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -1333,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>39</v>
@@ -1351,7 +1367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1359,7 +1375,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -1392,7 +1408,7 @@
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -1449,7 +1465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -1547,7 +1563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -1645,7 +1661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1686,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -1716,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -1743,15 +1759,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="1">
         <v>200</v>
@@ -1784,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -1814,7 +1830,7 @@
         <v>23</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>26</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>35</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36ED94-81AD-4F3C-8881-435C6E092F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC8F311-D575-464E-BE74-D26075CEC10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>Infantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signalman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,31 +661,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.875" style="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="18.75" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
-    <col min="31" max="31" width="13.125" customWidth="1"/>
-    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="18.77734375" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -779,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -975,7 +979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>35</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="AD12" s="1">
         <v>5</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC8F311-D575-464E-BE74-D26075CEC10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49F48A-0E53-4CFA-91CF-E3CAE836BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49F48A-0E53-4CFA-91CF-E3CAE836BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28A0C7-6595-4C6C-BD62-CD27CFB5CFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="16590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,22 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sniper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engineer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jianxin Liu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BtnLRpos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +210,6 @@
   </si>
   <si>
     <t>converIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commander</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,10 +263,6 @@
     <t>flamethrower</t>
   </si>
   <si>
-    <t>Signalman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Echo, he is the signalman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +291,30 @@
   </si>
   <si>
     <t>signalman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetherall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kicks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,31 +661,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" customWidth="1"/>
-    <col min="31" max="31" width="13.109375" customWidth="1"/>
-    <col min="32" max="32" width="15.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="18.75" customWidth="1"/>
+    <col min="28" max="28" width="10.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="13.125" customWidth="1"/>
+    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,10 +824,10 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -857,54 +857,54 @@
         <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -922,13 +922,13 @@
         <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="1">
         <v>6</v>
@@ -949,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -961,33 +961,33 @@
         <v>26</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AD3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3" s="1">
         <v>-1</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1074,15 +1074,15 @@
         <v>1</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1172,18 +1172,18 @@
         <v>1</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="138" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1246,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1270,33 +1270,33 @@
         <v>-1</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1305,96 +1305,96 @@
         <v>200</v>
       </c>
       <c r="K7" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M7" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R7" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y7" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1403,73 +1403,73 @@
         <v>200</v>
       </c>
       <c r="K8" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R8" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1477,10 +1477,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S9" s="1">
         <v>1</v>
@@ -1534,22 +1534,22 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Y9" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>39</v>
@@ -1567,7 +1567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1632,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>26</v>
@@ -1665,30 +1665,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1697,96 +1697,96 @@
         <v>200</v>
       </c>
       <c r="K11" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>4</v>
-      </c>
       <c r="Q11" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>4</v>
-      </c>
       <c r="AE11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1795,70 +1795,70 @@
         <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
         <v>2</v>
       </c>
-      <c r="N12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5</v>
-      </c>
       <c r="Q12" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R12" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>5</v>
-      </c>
       <c r="AE12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28A0C7-6595-4C6C-BD62-CD27CFB5CFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45036380-423C-464D-8D73-511DB4ECD1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="16590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,14 @@
   </si>
   <si>
     <t>Spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveAvaliable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,33 +667,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.875" style="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="18.75" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
-    <col min="31" max="31" width="13.125" customWidth="1"/>
-    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="28" max="28" width="18.77734375" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -765,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>19</v>
@@ -774,16 +783,19 @@
         <v>19</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,25 +875,28 @@
         <v>34</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -960,8 +975,8 @@
       <c r="Z3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>47</v>
+      <c r="AA3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>47</v>
@@ -969,17 +984,20 @@
       <c r="AC3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="1">
         <v>4</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>-1</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1058,8 +1076,8 @@
       <c r="Z4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>36</v>
+      <c r="AA4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>36</v>
@@ -1067,17 +1085,20 @@
       <c r="AC4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1156,8 +1177,8 @@
       <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>37</v>
+      <c r="AA5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>37</v>
@@ -1165,17 +1186,20 @@
       <c r="AC5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="1">
-        <v>1</v>
+      <c r="AD5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1254,8 +1278,8 @@
       <c r="Z6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>38</v>
+      <c r="AA6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>38</v>
@@ -1263,17 +1287,20 @@
       <c r="AC6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" s="1">
         <v>3</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>-1</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1352,26 +1379,29 @@
       <c r="Z7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>5</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>-1</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1450,8 +1480,8 @@
       <c r="Z8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>35</v>
+      <c r="AA8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>35</v>
@@ -1459,17 +1489,20 @@
       <c r="AC8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE8" s="1">
         <v>2</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>-1</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1548,26 +1581,29 @@
       <c r="Z9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="1">
         <v>0</v>
       </c>
-      <c r="AE9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1646,8 +1682,8 @@
       <c r="Z10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>39</v>
+      <c r="AA10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>39</v>
@@ -1655,17 +1691,20 @@
       <c r="AC10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1744,8 +1783,8 @@
       <c r="Z11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>39</v>
+      <c r="AA11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>39</v>
@@ -1753,17 +1792,20 @@
       <c r="AC11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE11" s="1">
         <v>0</v>
       </c>
-      <c r="AE11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1842,8 +1884,8 @@
       <c r="Z12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>39</v>
+      <c r="AA12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>39</v>
@@ -1851,13 +1893,16 @@
       <c r="AC12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45036380-423C-464D-8D73-511DB4ECD1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8466750-D533-4D0A-BA3F-6A8D73DE4BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>moveAvaliable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infantry(不动)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +396,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,34 +680,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" customWidth="1"/>
-    <col min="28" max="28" width="18.77734375" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="16.125" customWidth="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="13.125" customWidth="1"/>
+    <col min="33" max="33" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -795,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,7 +909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1098,7 +1111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="138" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1300,7 +1313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1603,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1704,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1805,7 +1818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1903,6 +1916,107 @@
         <v>1</v>
       </c>
       <c r="AG12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6">
+        <v>100</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>200</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="6">
+        <v>100</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="6">
+        <v>100</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>100</v>
+      </c>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8466750-D533-4D0A-BA3F-6A8D73DE4BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3476F89-77C6-488D-B212-9A828797E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[105]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[101,104]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>Infantry(不动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,105]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,32 +682,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.875" style="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="16.125" customWidth="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.625" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="13.125" customWidth="1"/>
-    <col min="33" max="33" width="15.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="28" max="28" width="18.77734375" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>19</v>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,7 +888,7 @@
         <v>34</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>42</v>
@@ -909,12 +909,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -1010,12 +1010,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>51</v>
@@ -1111,12 +1111,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -1212,12 +1212,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>52</v>
@@ -1283,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1313,12 +1313,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>58</v>
@@ -1384,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE7" s="1">
         <v>5</v>
@@ -1414,12 +1414,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>50</v>
@@ -1515,7 +1515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
@@ -1616,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1011</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3476F89-77C6-488D-B212-9A828797E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6CAD8-9421-4A36-96BE-8FA9AEE834CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6CAD8-9421-4A36-96BE-8FA9AEE834CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3043C-D142-4C09-952F-E25DB6EC9281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1562,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>90</v>
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>100</v>
@@ -1764,10 +1764,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>100</v>
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>100</v>
@@ -1966,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="P13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" s="6">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3043C-D142-4C09-952F-E25DB6EC9281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B106BC30-14FC-42DB-843E-F0F52ABA2EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="1">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1526,13 +1526,13 @@
         <v>62</v>
       </c>
       <c r="D9" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>0.5</v>
       </c>
       <c r="L9" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>0.5</v>
       </c>
       <c r="L10" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>0.5</v>
       </c>
       <c r="L12" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
@@ -1954,7 +1954,7 @@
         <v>0.5</v>
       </c>
       <c r="L13" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="6">
         <v>0.5</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B106BC30-14FC-42DB-843E-F0F52ABA2EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA053D98-0B48-4280-A10E-0E79A01EA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1690,7 @@
         <v>26</v>
       </c>
       <c r="Y10" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>26</v>
@@ -1791,7 +1791,7 @@
         <v>26</v>
       </c>
       <c r="Y11" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>26</v>
@@ -1892,7 +1892,7 @@
         <v>26</v>
       </c>
       <c r="Y12" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>26</v>
@@ -1992,8 +1992,8 @@
       <c r="X13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y13" s="6">
-        <v>10</v>
+      <c r="Y13" s="1">
+        <v>25</v>
       </c>
       <c r="Z13" s="6" t="s">
         <v>26</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA053D98-0B48-4280-A10E-0E79A01EA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2895BB3-1C92-4DD7-82F0-09044683F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
         <v>0.4</v>
       </c>
       <c r="L3" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -1045,7 +1045,7 @@
         <v>0.4</v>
       </c>
       <c r="L4" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>0.4</v>
       </c>
       <c r="L5" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>0.4</v>
       </c>
       <c r="L6" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0.4</v>
       </c>
       <c r="L7" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
@@ -1449,7 +1449,7 @@
         <v>0.4</v>
       </c>
       <c r="L8" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2895BB3-1C92-4DD7-82F0-09044683F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F054D049-CED6-4DEE-98EC-35296C65D037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>[101,105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo, he is the engineer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,15 +682,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>19</v>
@@ -849,10 +849,10 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -882,42 +882,42 @@
         <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>900</v>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="1">
         <v>4</v>
@@ -1007,18 +1007,18 @@
         <v>-1</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>500</v>
@@ -1093,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1116,10 +1116,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
@@ -1182,7 +1182,7 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
@@ -1209,18 +1209,18 @@
         <v>1</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="138" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -1283,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
@@ -1310,7 +1310,7 @@
         <v>-1</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1318,10 +1318,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -1384,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="1">
         <v>5</v>
@@ -1411,18 +1411,18 @@
         <v>-1</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -1497,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE8" s="1">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>-1</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1520,10 +1520,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1699,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -1722,10 +1722,10 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -1800,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="1">
         <v>0</v>
@@ -1823,10 +1823,10 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>100</v>
@@ -1901,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE12" s="1">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>1011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F054D049-CED6-4DEE-98EC-35296C65D037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62EF8C8-6410-45D8-A65D-310646290AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="1">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62EF8C8-6410-45D8-A65D-310646290AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECE86D3-F8F7-4878-8528-B2CAF8672F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECE86D3-F8F7-4878-8528-B2CAF8672F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BED9FB-5CC9-4101-AD8B-73DE376B1FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,32 +682,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" customWidth="1"/>
-    <col min="28" max="28" width="18.77734375" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="16.125" customWidth="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="13.125" customWidth="1"/>
+    <col min="33" max="33" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>46</v>
       </c>
       <c r="AE3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF3" s="1">
         <v>-1</v>
@@ -1010,7 +1010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>63</v>
       </c>
       <c r="AE7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" s="1">
         <v>-1</v>
@@ -1414,7 +1414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1011</v>
       </c>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BED9FB-5CC9-4101-AD8B-73DE376B1FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96AF19C-B91A-42F2-B487-55BC62E1D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>Halo, he is the engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,32 +682,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.875" style="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="16.125" customWidth="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.625" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="13.125" customWidth="1"/>
-    <col min="33" max="33" width="15.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="28" max="28" width="18.77734375" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>19</v>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,10 +849,10 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -882,42 +882,42 @@
         <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1">
         <v>500</v>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="1">
         <v>5</v>
@@ -1007,18 +1007,18 @@
         <v>-1</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
         <v>500</v>
@@ -1093,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>1</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
@@ -1182,7 +1182,7 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
@@ -1209,18 +1209,18 @@
         <v>1</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -1283,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
@@ -1310,18 +1310,18 @@
         <v>-1</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -1384,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
@@ -1411,18 +1411,18 @@
         <v>-1</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -1497,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE8" s="1">
         <v>2</v>
@@ -1512,18 +1512,18 @@
         <v>-1</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -1616,15 +1616,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1699,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -1717,12 +1717,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1800,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE11" s="1">
         <v>0</v>
@@ -1818,12 +1818,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1901,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE12" s="1">
         <v>0</v>
@@ -1919,15 +1919,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1011</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96AF19C-B91A-42F2-B487-55BC62E1D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE79220-D3F2-489F-8733-ECF2A0EAF4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>signalman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Whetherall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,32 +682,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="18.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="4" max="13" width="8.86328125" style="1"/>
     <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.86328125" style="1"/>
+    <col min="24" max="24" width="21.19921875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" customWidth="1"/>
-    <col min="28" max="28" width="18.77734375" customWidth="1"/>
+    <col min="26" max="26" width="12.1328125" customWidth="1"/>
+    <col min="27" max="27" width="16.1328125" customWidth="1"/>
+    <col min="28" max="28" width="18.796875" customWidth="1"/>
     <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1328125" customWidth="1"/>
+    <col min="32" max="32" width="13.1328125" customWidth="1"/>
+    <col min="33" max="33" width="15.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>19</v>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>40</v>
@@ -909,12 +909,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -995,10 +995,10 @@
         <v>45</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AE3" s="1">
         <v>5</v>
@@ -1010,12 +1010,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>49</v>
@@ -1096,10 +1096,10 @@
         <v>34</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1111,15 +1111,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
@@ -1197,10 +1197,10 @@
         <v>35</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
@@ -1212,12 +1212,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>50</v>
@@ -1283,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>36</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
@@ -1313,12 +1313,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>56</v>
@@ -1399,10 +1399,10 @@
         <v>57</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
@@ -1414,12 +1414,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>48</v>
@@ -1500,10 +1500,10 @@
         <v>33</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AE8" s="1">
         <v>2</v>
@@ -1515,12 +1515,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -1616,12 +1616,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
@@ -1717,12 +1717,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1818,12 +1818,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1919,15 +1919,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE79220-D3F2-489F-8733-ECF2A0EAF4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938E2C5-75C8-478E-ADEC-29D4EF97E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,116 +217,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liu is an experienced assault rifleman. 
+    <t>[[0:1051]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crAtkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flamethrower</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>[101,102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetherall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kicks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveAvaliable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infantry(不动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss is the most &lt;b&gt;versatile&lt;/b&gt; member in the  Squad. 
+With his long years of military experience, the squad leader inspires squadmates so they &lt;b&gt;take less damage from enemies&lt;/b&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wetherall never misses a shot.
+This marksman is &lt;b&gt;NOT good at defending himself&lt;/b&gt;, but he can &lt;b&gt;take down enemies in seconds&lt;/b&gt;. 
+While Wetherall supports other squadmates, they &lt;b&gt;attack more frequently&lt;/b&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo is a talented combat engineer. 
+In addition to &lt;b&gt;giving a defensive buff&lt;/b&gt; to fortifications, the engineer is also the only squad member who can &lt;b&gt;build a Bunker&lt;/b&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Killing enemies is not the job for Kicks.
+However, the medic can &lt;b&gt;help heal other squad member's wounds&lt;/b&gt;, even if they are in combat with enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When not on the frontline, Echo keeps the squad in contact with HQ. 
+The signalman is an skilled runner, so he &lt;b&gt;moves faster&lt;/b&gt; than other squadmates.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan is an experienced assault rifleman. 
 He is &lt;b&gt;fast and aggressive&lt;/b&gt; in combat. 
-With his &lt;b&gt;support&lt;/b&gt; and supressive fire, other members can &lt;b&gt;deal more damage&lt;/b&gt; to enemies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper never miss a shot. 
-He is &lt;b&gt;not good at defending himself&lt;/b&gt;, but he can &lt;b&gt;take down enemies in seconds&lt;/b&gt;. 
-With his cover, other members would have &lt;b&gt;more chance to attack&lt;/b&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The medic is new to battleground. 
-Killing enemies is not his job. 
-However, he can&lt;b&gt;deal with other member's wound&lt;/b&gt; even if they are engaging enemies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>With a long military career, the commander is the most &lt;b&gt;versatile&lt;/b&gt; member in the squad. 
-He can always guide other members to &lt;b&gt;take less damage from enemies&lt;/b&gt; with his experience.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0:1051]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crAtkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flamethrower</t>
-  </si>
-  <si>
-    <t>Echo, he is the signalman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>[101,102]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101,104]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infantry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whetherall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kicks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spartan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveAvaliable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infantry(不动)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101,105]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halo, he is the engineer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epic</t>
+With his &lt;b&gt;support&lt;/b&gt; and suppressing fire, squadmates can &lt;b&gt;deal more damage&lt;/b&gt; to enemies.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,32 +683,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
-    <col min="2" max="2" width="18.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.86328125" style="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.86328125" style="1"/>
-    <col min="24" max="24" width="21.19921875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1328125" customWidth="1"/>
-    <col min="27" max="27" width="16.1328125" customWidth="1"/>
-    <col min="28" max="28" width="18.796875" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.1328125" customWidth="1"/>
-    <col min="32" max="32" width="13.1328125" customWidth="1"/>
-    <col min="33" max="33" width="15.46484375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="16.125" customWidth="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="13.125" customWidth="1"/>
+    <col min="33" max="33" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -787,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>19</v>
@@ -808,7 +809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,10 +850,10 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>12</v>
@@ -888,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>40</v>
@@ -909,15 +910,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1">
         <v>500</v>
@@ -980,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -995,10 +996,10 @@
         <v>45</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE3" s="1">
         <v>5</v>
@@ -1010,15 +1011,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <v>500</v>
@@ -1096,10 +1097,10 @@
         <v>34</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1111,15 +1112,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
@@ -1182,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1197,10 +1198,10 @@
         <v>35</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
@@ -1212,15 +1213,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -1283,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1298,10 +1299,10 @@
         <v>36</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
@@ -1313,15 +1314,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -1384,7 +1385,7 @@
         <v>23</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1396,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
@@ -1414,15 +1415,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -1500,10 +1501,10 @@
         <v>33</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="1">
         <v>2</v>
@@ -1512,18 +1513,18 @@
         <v>-1</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1598,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>37</v>
@@ -1616,15 +1617,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -1717,12 +1718,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1818,12 +1819,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1919,15 +1920,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>

--- a/GameDesign/ExcelData/Character_Data.xlsx
+++ b/GameDesign/ExcelData/Character_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938E2C5-75C8-478E-ADEC-29D4EF97E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01CC1B-251B-4301-AC4F-7CDB2DA35AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,32 +683,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.875" style="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="21.21875" style="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="16.125" customWidth="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.625" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="13.125" customWidth="1"/>
-    <col min="33" max="33" width="15.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="28" max="28" width="18.77734375" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -809,7 +809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1551,10 +1551,10 @@
         <v>0.5</v>
       </c>
       <c r="L9" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M9" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <v>0.7</v>
@@ -1617,7 +1617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1652,10 +1652,10 @@
         <v>0.5</v>
       </c>
       <c r="L10" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <v>0.7</v>
@@ -1718,7 +1718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1011</v>
       </c>
